--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>81.40564966666666</v>
+        <v>99.64722966666666</v>
       </c>
       <c r="H2">
-        <v>244.216949</v>
+        <v>298.941689</v>
       </c>
       <c r="I2">
-        <v>0.3537645953384615</v>
+        <v>0.3908813543871662</v>
       </c>
       <c r="J2">
-        <v>0.3537645953384615</v>
+        <v>0.3908813543871662</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>13327.0805242798</v>
+        <v>15892.10263743004</v>
       </c>
       <c r="R2">
-        <v>119943.7247185182</v>
+        <v>143028.9237368704</v>
       </c>
       <c r="S2">
-        <v>0.09742687789311853</v>
+        <v>0.1166110514509627</v>
       </c>
       <c r="T2">
-        <v>0.09742687789311852</v>
+        <v>0.1166110514509627</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>81.40564966666666</v>
+        <v>99.64722966666666</v>
       </c>
       <c r="H3">
-        <v>244.216949</v>
+        <v>298.941689</v>
       </c>
       <c r="I3">
-        <v>0.3537645953384615</v>
+        <v>0.3908813543871662</v>
       </c>
       <c r="J3">
-        <v>0.3537645953384615</v>
+        <v>0.3908813543871662</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>14047.23655378855</v>
+        <v>17194.97618149381</v>
       </c>
       <c r="R3">
-        <v>126425.128984097</v>
+        <v>154754.7856334443</v>
       </c>
       <c r="S3">
-        <v>0.1026915383281716</v>
+        <v>0.1261711113969062</v>
       </c>
       <c r="T3">
-        <v>0.1026915383281716</v>
+        <v>0.1261711113969062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>81.40564966666666</v>
+        <v>99.64722966666666</v>
       </c>
       <c r="H4">
-        <v>244.216949</v>
+        <v>298.941689</v>
       </c>
       <c r="I4">
-        <v>0.3537645953384615</v>
+        <v>0.3908813543871662</v>
       </c>
       <c r="J4">
-        <v>0.3537645953384615</v>
+        <v>0.3908813543871662</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>9075.766447699094</v>
+        <v>7412.528790942734</v>
       </c>
       <c r="R4">
-        <v>81681.89802929186</v>
+        <v>66712.75911848461</v>
       </c>
       <c r="S4">
-        <v>0.06634788376010246</v>
+        <v>0.05439071191162072</v>
       </c>
       <c r="T4">
-        <v>0.06634788376010246</v>
+        <v>0.05439071191162073</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.40564966666666</v>
+        <v>99.64722966666666</v>
       </c>
       <c r="H5">
-        <v>244.216949</v>
+        <v>298.941689</v>
       </c>
       <c r="I5">
-        <v>0.3537645953384615</v>
+        <v>0.3908813543871662</v>
       </c>
       <c r="J5">
-        <v>0.3537645953384615</v>
+        <v>0.3908813543871662</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>4862.714654574712</v>
+        <v>5820.854490363425</v>
       </c>
       <c r="R5">
-        <v>43764.4318911724</v>
+        <v>52387.69041327082</v>
       </c>
       <c r="S5">
-        <v>0.03554860391345392</v>
+        <v>0.04271152647011241</v>
       </c>
       <c r="T5">
-        <v>0.03554860391345391</v>
+        <v>0.04271152647011241</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>81.40564966666666</v>
+        <v>99.64722966666666</v>
       </c>
       <c r="H6">
-        <v>244.216949</v>
+        <v>298.941689</v>
       </c>
       <c r="I6">
-        <v>0.3537645953384615</v>
+        <v>0.3908813543871662</v>
       </c>
       <c r="J6">
-        <v>0.3537645953384615</v>
+        <v>0.3908813543871662</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>7078.871045547522</v>
+        <v>6950.017204132942</v>
       </c>
       <c r="R6">
-        <v>63709.8394099277</v>
+        <v>62550.15483719647</v>
       </c>
       <c r="S6">
-        <v>0.05174969144361502</v>
+        <v>0.05099695315756419</v>
       </c>
       <c r="T6">
-        <v>0.05174969144361501</v>
+        <v>0.0509969531575642</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,13 +853,13 @@
         <v>134.9400586666667</v>
       </c>
       <c r="H7">
-        <v>404.8201759999999</v>
+        <v>404.8201760000001</v>
       </c>
       <c r="I7">
-        <v>0.5864091183429073</v>
+        <v>0.5293228228135523</v>
       </c>
       <c r="J7">
-        <v>0.5864091183429073</v>
+        <v>0.5293228228135521</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>22091.30490531647</v>
+        <v>21520.73137813339</v>
       </c>
       <c r="R7">
-        <v>198821.7441478482</v>
+        <v>193686.5824032006</v>
       </c>
       <c r="S7">
-        <v>0.1614972507736257</v>
+        <v>0.1579120882398031</v>
       </c>
       <c r="T7">
-        <v>0.1614972507736257</v>
+        <v>0.1579120882398031</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>134.9400586666667</v>
       </c>
       <c r="H8">
-        <v>404.8201759999999</v>
+        <v>404.8201760000001</v>
       </c>
       <c r="I8">
-        <v>0.5864091183429073</v>
+        <v>0.5293228228135523</v>
       </c>
       <c r="J8">
-        <v>0.5864091183429073</v>
+        <v>0.5293228228135521</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
-        <v>23285.05370861182</v>
+        <v>23285.05370861183</v>
       </c>
       <c r="R8">
         <v>209565.4833775064</v>
       </c>
       <c r="S8">
-        <v>0.1702240847326332</v>
+        <v>0.1708581084581053</v>
       </c>
       <c r="T8">
-        <v>0.1702240847326332</v>
+        <v>0.1708581084581053</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>134.9400586666667</v>
       </c>
       <c r="H9">
-        <v>404.8201759999999</v>
+        <v>404.8201760000001</v>
       </c>
       <c r="I9">
-        <v>0.5864091183429073</v>
+        <v>0.5293228228135523</v>
       </c>
       <c r="J9">
-        <v>0.5864091183429073</v>
+        <v>0.5293228228135521</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>15044.21943577897</v>
+        <v>10037.88136673873</v>
       </c>
       <c r="R9">
-        <v>135397.9749220108</v>
+        <v>90340.93230064861</v>
       </c>
       <c r="S9">
-        <v>0.1099799260082977</v>
+        <v>0.07365469045980938</v>
       </c>
       <c r="T9">
-        <v>0.1099799260082977</v>
+        <v>0.07365469045980938</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,13 +1039,13 @@
         <v>134.9400586666667</v>
       </c>
       <c r="H10">
-        <v>404.8201759999999</v>
+        <v>404.8201760000001</v>
       </c>
       <c r="I10">
-        <v>0.5864091183429073</v>
+        <v>0.5293228228135523</v>
       </c>
       <c r="J10">
-        <v>0.5864091183429073</v>
+        <v>0.5293228228135521</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>8060.558492615981</v>
+        <v>7882.471485130709</v>
       </c>
       <c r="R10">
-        <v>72545.02643354383</v>
+        <v>70942.24336617638</v>
       </c>
       <c r="S10">
-        <v>0.0589262627009508</v>
+        <v>0.0578389977011857</v>
       </c>
       <c r="T10">
-        <v>0.05892626270095079</v>
+        <v>0.05783899770118569</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,13 +1101,13 @@
         <v>134.9400586666667</v>
       </c>
       <c r="H11">
-        <v>404.8201759999999</v>
+        <v>404.8201760000001</v>
       </c>
       <c r="I11">
-        <v>0.5864091183429073</v>
+        <v>0.5293228228135523</v>
       </c>
       <c r="J11">
-        <v>0.5864091183429073</v>
+        <v>0.5293228228135521</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>11734.11523759496</v>
+        <v>9411.558478818008</v>
       </c>
       <c r="R11">
-        <v>105607.0371383547</v>
+        <v>84704.02630936206</v>
       </c>
       <c r="S11">
-        <v>0.08578159412739993</v>
+        <v>0.06905893795464874</v>
       </c>
       <c r="T11">
-        <v>0.0857815941273999</v>
+        <v>0.06905893795464874</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.060574</v>
+        <v>0.1549246666666667</v>
       </c>
       <c r="H12">
-        <v>0.181722</v>
+        <v>0.464774</v>
       </c>
       <c r="I12">
-        <v>0.0002632364791114309</v>
+        <v>0.0006077154752542421</v>
       </c>
       <c r="J12">
-        <v>0.0002632364791114309</v>
+        <v>0.000607715475254242</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>9.916689799581333</v>
+        <v>24.70794935265423</v>
       </c>
       <c r="R12">
-        <v>89.25020819623199</v>
+        <v>222.371544173888</v>
       </c>
       <c r="S12">
-        <v>7.249540696085465E-05</v>
+        <v>0.0001812988513190268</v>
       </c>
       <c r="T12">
-        <v>7.249540696085464E-05</v>
+        <v>0.0001812988513190267</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.060574</v>
+        <v>0.1549246666666667</v>
       </c>
       <c r="H13">
-        <v>0.181722</v>
+        <v>0.464774</v>
       </c>
       <c r="I13">
-        <v>0.0002632364791114309</v>
+        <v>0.0006077154752542421</v>
       </c>
       <c r="J13">
-        <v>0.0002632364791114309</v>
+        <v>0.000607715475254242</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>10.452558397278</v>
+        <v>26.733567628226</v>
       </c>
       <c r="R13">
-        <v>94.07302557550199</v>
+        <v>240.602108654034</v>
       </c>
       <c r="S13">
-        <v>7.641284441757559E-05</v>
+        <v>0.0001961621757224557</v>
       </c>
       <c r="T13">
-        <v>7.641284441757558E-05</v>
+        <v>0.0001961621757224556</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.060574</v>
+        <v>0.1549246666666667</v>
       </c>
       <c r="H14">
-        <v>0.181722</v>
+        <v>0.464774</v>
       </c>
       <c r="I14">
-        <v>0.0002632364791114309</v>
+        <v>0.0006077154752542421</v>
       </c>
       <c r="J14">
-        <v>0.0002632364791114309</v>
+        <v>0.000607715475254242</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>6.753284066327333</v>
+        <v>11.52449050450645</v>
       </c>
       <c r="R14">
-        <v>60.779556596946</v>
+        <v>103.720414540558</v>
       </c>
       <c r="S14">
-        <v>4.936950601513468E-05</v>
+        <v>8.4562942099426E-05</v>
       </c>
       <c r="T14">
-        <v>4.936950601513468E-05</v>
+        <v>8.4562942099426E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.060574</v>
+        <v>0.1549246666666667</v>
       </c>
       <c r="H15">
-        <v>0.181722</v>
+        <v>0.464774</v>
       </c>
       <c r="I15">
-        <v>0.0002632364791114309</v>
+        <v>0.0006077154752542421</v>
       </c>
       <c r="J15">
-        <v>0.0002632364791114309</v>
+        <v>0.000607715475254242</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>3.618349324553333</v>
+        <v>9.049864654053556</v>
       </c>
       <c r="R15">
-        <v>32.56514392097999</v>
+        <v>81.448781886482</v>
       </c>
       <c r="S15">
-        <v>2.645174066260517E-05</v>
+        <v>6.64049469648244E-05</v>
       </c>
       <c r="T15">
-        <v>2.645174066260517E-05</v>
+        <v>6.64049469648244E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.060574</v>
+        <v>0.1549246666666667</v>
       </c>
       <c r="H16">
-        <v>0.181722</v>
+        <v>0.464774</v>
       </c>
       <c r="I16">
-        <v>0.0002632364791114309</v>
+        <v>0.0006077154752542421</v>
       </c>
       <c r="J16">
-        <v>0.0002632364791114309</v>
+        <v>0.000607715475254242</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>5.267392821859333</v>
+        <v>10.80540926506134</v>
       </c>
       <c r="R16">
-        <v>47.40653539673399</v>
+        <v>97.24868338555201</v>
       </c>
       <c r="S16">
-        <v>3.850698105526086E-05</v>
+        <v>7.92865591485092E-05</v>
       </c>
       <c r="T16">
-        <v>3.850698105526085E-05</v>
+        <v>7.928655914850922E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.589642</v>
+        <v>20.050764</v>
       </c>
       <c r="H17">
-        <v>40.768926</v>
+        <v>60.152292</v>
       </c>
       <c r="I17">
-        <v>0.05905651785361418</v>
+        <v>0.07865215937296824</v>
       </c>
       <c r="J17">
-        <v>0.05905651785361418</v>
+        <v>0.07865215937296823</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>2224.787271789251</v>
+        <v>3197.768774032256</v>
       </c>
       <c r="R17">
-        <v>20023.08544610325</v>
+        <v>28779.9189662903</v>
       </c>
       <c r="S17">
-        <v>0.01626418310235948</v>
+        <v>0.02346418139527315</v>
       </c>
       <c r="T17">
-        <v>0.01626418310235947</v>
+        <v>0.02346418139527314</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.589642</v>
+        <v>20.050764</v>
       </c>
       <c r="H18">
-        <v>40.768926</v>
+        <v>60.152292</v>
       </c>
       <c r="I18">
-        <v>0.05905651785361418</v>
+        <v>0.07865215937296824</v>
       </c>
       <c r="J18">
-        <v>0.05905651785361418</v>
+        <v>0.07865215937296823</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>2345.008198288074</v>
+        <v>3459.929699541708</v>
       </c>
       <c r="R18">
-        <v>21105.07378459266</v>
+        <v>31139.36729587537</v>
       </c>
       <c r="S18">
-        <v>0.01714305147153153</v>
+        <v>0.02538783252379105</v>
       </c>
       <c r="T18">
-        <v>0.01714305147153153</v>
+        <v>0.02538783252379105</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.589642</v>
+        <v>20.050764</v>
       </c>
       <c r="H19">
-        <v>40.768926</v>
+        <v>60.152292</v>
       </c>
       <c r="I19">
-        <v>0.05905651785361418</v>
+        <v>0.07865215937296824</v>
       </c>
       <c r="J19">
-        <v>0.05905651785361418</v>
+        <v>0.07865215937296823</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>1515.084240527169</v>
+        <v>1491.530330823796</v>
       </c>
       <c r="R19">
-        <v>13635.75816474452</v>
+        <v>13423.77297741416</v>
       </c>
       <c r="S19">
-        <v>0.01107593872721839</v>
+        <v>0.01094436174472704</v>
       </c>
       <c r="T19">
-        <v>0.01107593872721839</v>
+        <v>0.01094436174472704</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.589642</v>
+        <v>20.050764</v>
       </c>
       <c r="H20">
-        <v>40.768926</v>
+        <v>60.152292</v>
       </c>
       <c r="I20">
-        <v>0.05905651785361418</v>
+        <v>0.07865215937296824</v>
       </c>
       <c r="J20">
-        <v>0.05905651785361418</v>
+        <v>0.07865215937296823</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>811.7686127979266</v>
+        <v>1171.257646148684</v>
       </c>
       <c r="R20">
-        <v>7305.917515181339</v>
+        <v>10541.31881533816</v>
       </c>
       <c r="S20">
-        <v>0.005934389108885777</v>
+        <v>0.00859430553359833</v>
       </c>
       <c r="T20">
-        <v>0.005934389108885776</v>
+        <v>0.00859430553359833</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.589642</v>
+        <v>20.050764</v>
       </c>
       <c r="H21">
-        <v>40.768926</v>
+        <v>60.152292</v>
       </c>
       <c r="I21">
-        <v>0.05905651785361418</v>
+        <v>0.07865215937296824</v>
       </c>
       <c r="J21">
-        <v>0.05905651785361418</v>
+        <v>0.07865215937296823</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>1181.727848952325</v>
+        <v>1398.464916909024</v>
       </c>
       <c r="R21">
-        <v>10635.55064057092</v>
+        <v>12586.18425218122</v>
       </c>
       <c r="S21">
-        <v>0.008638955443619001</v>
+        <v>0.01026147817557866</v>
       </c>
       <c r="T21">
-        <v>0.008638955443618999</v>
+        <v>0.01026147817557866</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1165593333333333</v>
+        <v>0.136629</v>
       </c>
       <c r="H22">
-        <v>0.349678</v>
+        <v>0.409887</v>
       </c>
       <c r="I22">
-        <v>0.0005065319859055423</v>
+        <v>0.0005359479510590857</v>
       </c>
       <c r="J22">
-        <v>0.0005065319859055423</v>
+        <v>0.0005359479510590856</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>19.08215986912978</v>
+        <v>21.790089885216</v>
       </c>
       <c r="R22">
-        <v>171.739438822168</v>
+        <v>196.110808966944</v>
       </c>
       <c r="S22">
-        <v>0.0001394990640387941</v>
+        <v>0.0001598885528678496</v>
       </c>
       <c r="T22">
-        <v>0.000139499064038794</v>
+        <v>0.0001598885528678495</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1165593333333333</v>
+        <v>0.136629</v>
       </c>
       <c r="H23">
-        <v>0.349678</v>
+        <v>0.409887</v>
       </c>
       <c r="I23">
-        <v>0.0005065319859055423</v>
+        <v>0.0005359479510590857</v>
       </c>
       <c r="J23">
-        <v>0.0005065319859055423</v>
+        <v>0.0005359479510590856</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>20.113303371322</v>
+        <v>23.576494886613</v>
       </c>
       <c r="R23">
-        <v>181.019730341898</v>
+        <v>212.188453979517</v>
       </c>
       <c r="S23">
-        <v>0.0001470371810251318</v>
+        <v>0.0001729966085029502</v>
       </c>
       <c r="T23">
-        <v>0.0001470371810251318</v>
+        <v>0.0001729966085029501</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1165593333333333</v>
+        <v>0.136629</v>
       </c>
       <c r="H24">
-        <v>0.349678</v>
+        <v>0.409887</v>
       </c>
       <c r="I24">
-        <v>0.0005065319859055423</v>
+        <v>0.0005359479510590857</v>
       </c>
       <c r="J24">
-        <v>0.0005065319859055423</v>
+        <v>0.0005359479510590856</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>12.99498610925044</v>
+        <v>10.163517837531</v>
       </c>
       <c r="R24">
-        <v>116.954874983254</v>
+        <v>91.471660537779</v>
       </c>
       <c r="S24">
-        <v>9.499912021857709E-05</v>
+        <v>7.457656979157057E-05</v>
       </c>
       <c r="T24">
-        <v>9.499912021857709E-05</v>
+        <v>7.457656979157057E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1165593333333333</v>
+        <v>0.136629</v>
       </c>
       <c r="H25">
-        <v>0.349678</v>
+        <v>0.409887</v>
       </c>
       <c r="I25">
-        <v>0.0005065319859055423</v>
+        <v>0.0005359479510590857</v>
       </c>
       <c r="J25">
-        <v>0.0005065319859055423</v>
+        <v>0.0005359479510590856</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>6.962597567224444</v>
+        <v>7.981130341749</v>
       </c>
       <c r="R25">
-        <v>62.66337810501999</v>
+        <v>71.830173075741</v>
       </c>
       <c r="S25">
-        <v>5.089968067387796E-05</v>
+        <v>5.856292412349007E-05</v>
       </c>
       <c r="T25">
-        <v>5.089968067387795E-05</v>
+        <v>5.856292412349007E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1165593333333333</v>
+        <v>0.136629</v>
       </c>
       <c r="H26">
-        <v>0.349678</v>
+        <v>0.409887</v>
       </c>
       <c r="I26">
-        <v>0.0005065319859055423</v>
+        <v>0.0005359479510590857</v>
       </c>
       <c r="J26">
-        <v>0.0005065319859055423</v>
+        <v>0.0005359479510590856</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>10.13576444878511</v>
+        <v>9.529355745864001</v>
       </c>
       <c r="R26">
-        <v>91.22188003906599</v>
+        <v>85.764201712776</v>
       </c>
       <c r="S26">
-        <v>7.40969399491614E-05</v>
+        <v>6.992329577322525E-05</v>
       </c>
       <c r="T26">
-        <v>7.409693994916138E-05</v>
+        <v>6.992329577322525E-05</v>
       </c>
     </row>
   </sheetData>
